--- a/data/trans_bre/P12B1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-18,21%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,61%</t>
+          <t>-12,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-19,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-31,49%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-39,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 15,92</t>
+          <t>-2,07; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 5,31</t>
+          <t>-2,42; 1,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 11,74</t>
+          <t>-1,93; 0,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 2,81</t>
+          <t>-4,23; 0,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 87,01</t>
+          <t>-4,18; 0,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,51; 33,27</t>
+          <t>-2,63; 2,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 78,65</t>
+          <t>-57,39; 84,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 8,35</t>
+          <t>-66,28; 83,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-60,7; 75,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-62,25; 20,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-65,06; 7,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 61,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,06</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,37</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,11%</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,87%</t>
+          <t>-17,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-57,28%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 11,37</t>
+          <t>-1,82; 1,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 0,88</t>
+          <t>-2,32; 1,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 10,94</t>
+          <t>-1,56; 2,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 12,33</t>
+          <t>-2,33; 1,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 65,66</t>
+          <t>-3,22; 3,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 3,57</t>
+          <t>-6,85; 0,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 35,6</t>
+          <t>-57,18; 153,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,01; 61,96</t>
+          <t>-59,24; 79,05</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,82; 136,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-59,44; 120,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-68,6; 260,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-89,68; 76,39</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,66</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>205,74%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-17,61%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>488,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-19,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 0,0</t>
+          <t>-5,49; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 20,78</t>
+          <t>-3,26; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 30,15</t>
+          <t>0,42; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-6,73; 3,65</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-84,43; 203,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,36%</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-11,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>-15,28%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-21,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-31,09%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 4,92</t>
+          <t>-1,49; 0,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 0,25</t>
+          <t>-1,64; 0,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 6,86</t>
+          <t>-0,73; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,48; -0,39</t>
+          <t>-2,43; 0,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,4; 24,94</t>
+          <t>-3,21; 0,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,31; 3,74</t>
+          <t>-2,76; 1,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 31,72</t>
+          <t>-48,69; 51,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 0,15</t>
+          <t>-50,66; 34,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 88,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 20,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-57,2; 7,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-43,93; 33,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-9,77%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-19,91%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-31,49%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-39,02%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.07839082887521748</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2638291022142362</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5045152143971061</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.776969284544263</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.906280194850539</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.003126169033910997</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.03143425863722397</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1205198211054602</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.23214207594306</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3488970361709282</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.390233460269145</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.0006228785152665605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 1,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 1,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 0,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 0,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 0,07</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 2,33</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-57,39; 84,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,28; 83,81</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-60,7; 75,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-62,25; 20,19</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-65,06; 7,07</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-38,65; 61,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.879703530382641</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.490308756267695</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.002827095575471</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.458961801676682</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.176154357258614</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.627279698354154</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5314533266770066</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6675002339158319</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6296002018347564</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6398902437377928</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.650565833091022</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3913976195960097</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.550894119642944</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.122191214113519</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8060830222160675</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.2596944237551278</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.06811014113853095</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.279265323046726</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.9738650479300873</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8610545830645711</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6719390577224724</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1577458549095028</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.07072782971115635</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5995346122242132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,85</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>22,34%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-57,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 1,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 1,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 2,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 1,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 3,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 0,96</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,18; 153,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-59,24; 79,05</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,82; 136,08</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-59,44; 120,84</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-68,6; 260,38</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-89,68; 76,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.037720952763759</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.4313364784656573</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5812891066057695</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.02404850594126332</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2653466819900516</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-3.026623031621679</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3392421291114555</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1599367879838766</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1903257361260331</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.008977919562411153</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.08093346837938921</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.5975707427669602</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-17,61%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>488,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,35%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.014776625323128</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.213189052233953</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.661350840942904</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.340945049190533</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.223964502655949</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.232982405041795</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7546490000770625</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5839900916323886</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3975914730362781</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5947331042511854</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.6859800839879345</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.90569750741563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 2,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 5,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 3,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-84,43; 203,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9424988178519922</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.279223351871751</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.686351653999791</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.042742800664726</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.866394678387569</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7388740157623571</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6683894282409392</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8391056402539112</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.283821255189518</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.270996367534821</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.603770204023516</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.5925537388855349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-11,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-15,28%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-21,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-12,27%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.355282220868004</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2476088262771802</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.441936215169025</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.8482445879554816</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1361540322235292</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>5.127751222384566</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1883357081003593</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 0,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 0,63</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 0,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 0,23</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 1,24</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-48,69; 51,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-50,66; 34,23</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-25,44; 88,52</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-49,57; 20,11</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-57,2; 7,55</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-43,93; 33,96</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.676752540391357</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.162478239600114</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4522801118560917</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.628824190820241</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="n">
+        <v>-0.8494015287040935</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.542745643910596</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.437567151410819</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.564456228037203</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>2.072209760711976</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.592750356501481</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3324320592815125</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2463186088098566</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.9380006778191806</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.399242014031147</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.6831033822628494</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2296980104478411</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1416438759199914</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1062518213966063</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.23140624790269</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.3109330992208871</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1358042786415283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.0487477119551</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.597892964125353</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8156047009149536</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.484974242057958</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.213902804154571</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.822219440014289</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5591153995967295</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5041753731070976</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2850578861713054</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4952185413735772</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.5720492976068756</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4482276883178868</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.6080510993477437</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6670960132631432</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.310277981206359</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6211017566523581</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2290761097809336</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.183694403687565</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3520065608921447</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3733568551673902</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8455698876962939</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1957685067051321</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.07551812387535753</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.3047455852418525</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1165,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
